--- a/chemanalyst_14_07_2019/ChemAnalyst/MarketAnalysisImportfile/Region(T).xlsx
+++ b/chemanalyst_14_07_2019/ChemAnalyst/MarketAnalysisImportfile/Region(T).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aj/Desktop/Import Fles/Market Analysis/LLDPE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Formats-05AUG\Market_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED5169E-E89A-4F40-8632-E0EEC408909B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="940" windowWidth="27640" windowHeight="15440" xr2:uid="{FF382874-674B-184B-9138-CABCF4561E80}"/>
+    <workbookView xWindow="1935" yWindow="945" windowWidth="27645" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
-  <si>
-    <t>EndUse</t>
-  </si>
   <si>
     <t>Year</t>
   </si>
@@ -47,11 +43,14 @@
   <si>
     <t>East</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -432,29 +431,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4E0820-4EEA-1B4C-AED1-2DF19A790E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2017</v>
@@ -463,9 +460,9 @@
         <v>587.50615600000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2017</v>
@@ -474,9 +471,9 @@
         <v>352.50369360000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2017</v>
@@ -485,9 +482,9 @@
         <v>381.87900139999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>2017</v>
@@ -496,9 +493,9 @@
         <v>146.87653899999987</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>2018</v>
@@ -507,9 +504,9 @@
         <v>685.73193813700004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>2018</v>
@@ -518,9 +515,9 @@
         <v>404.99489373100005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>2018</v>
@@ -529,9 +526,9 @@
         <v>444.75740551500002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>2018</v>
@@ -540,9 +537,9 @@
         <v>178.41713261699988</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>2019</v>
@@ -551,9 +548,9 @@
         <v>681.81314805714283</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4">
         <v>2019</v>
@@ -562,9 +559,9 @@
         <v>396.51786377142861</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4">
         <v>2019</v>
@@ -573,9 +570,9 @@
         <v>441.31348154285718</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4">
         <v>2019</v>
@@ -584,9 +581,9 @@
         <v>183.61093519999986</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4">
         <v>2020</v>
@@ -595,9 +592,9 @@
         <v>724.94843243679998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4">
         <v>2020</v>
@@ -606,9 +603,9 @@
         <v>415.16152736702855</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4">
         <v>2020</v>
@@ -617,9 +614,9 @@
         <v>468.39200667182854</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4">
         <v>2020</v>
@@ -628,9 +625,9 @@
         <v>202.05855409577134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4">
         <v>2021</v>
@@ -639,9 +636,9 @@
         <v>771.36776411926223</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4">
         <v>2021</v>
@@ -650,9 +647,9 @@
         <v>434.78492545713783</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4">
         <v>2021</v>
@@ -661,9 +658,9 @@
         <v>497.36468665003844</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4">
         <v>2021</v>
